--- a/B_데이터수집/2_웹페이지데이터수집/3_블로그게시글수집.xlsx
+++ b/B_데이터수집/2_웹페이지데이터수집/3_블로그게시글수집.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>read more</t>
+          <t>React 강의를 진행하면서 단원별로 React Project를 생성하고 yarn berry로 패키지 관리자의 버전을 변경하고, 그 밖에 여러가지 기본 패키지들을 설치하는 반복작업은 무척 시간 낭비가 심하다.</t>
         </is>
       </c>
     </row>
